--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Vtn-Itga8.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Vtn-Itga8.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t>Edge total expression derived specificity</t>
+  </si>
+  <si>
+    <t>ECs</t>
   </si>
   <si>
     <t>FAPs</t>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>9.556699030345159</v>
+        <v>3.708951</v>
       </c>
       <c r="H2">
-        <v>9.556699030345159</v>
+        <v>11.126853</v>
       </c>
       <c r="I2">
-        <v>0.7000061215111694</v>
+        <v>0.1962880377928</v>
       </c>
       <c r="J2">
-        <v>0.7000061215111694</v>
+        <v>0.1962880377928</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>2.22702178916967</v>
+        <v>0.3881176666666666</v>
       </c>
       <c r="N2">
-        <v>2.22702178916967</v>
+        <v>1.164353</v>
       </c>
       <c r="O2">
-        <v>0.5188404445132958</v>
+        <v>0.08027910179751364</v>
       </c>
       <c r="P2">
-        <v>0.5188404445132958</v>
+        <v>0.08027910179751364</v>
       </c>
       <c r="Q2">
-        <v>21.28297697311533</v>
+        <v>1.439509407901</v>
       </c>
       <c r="R2">
-        <v>21.28297697311533</v>
+        <v>12.955584671109</v>
       </c>
       <c r="S2">
-        <v>0.3631914872468833</v>
+        <v>0.01575782736760239</v>
       </c>
       <c r="T2">
-        <v>0.3631914872468833</v>
+        <v>0.01575782736760239</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>9.556699030345159</v>
+        <v>3.708951</v>
       </c>
       <c r="H3">
-        <v>9.556699030345159</v>
+        <v>11.126853</v>
       </c>
       <c r="I3">
-        <v>0.7000061215111694</v>
+        <v>0.1962880377928</v>
       </c>
       <c r="J3">
-        <v>0.7000061215111694</v>
+        <v>0.1962880377928</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.878577454500976</v>
+        <v>2.230730666666667</v>
       </c>
       <c r="N3">
-        <v>0.878577454500976</v>
+        <v>6.692192</v>
       </c>
       <c r="O3">
-        <v>0.2046865994978</v>
+        <v>0.4614091798762974</v>
       </c>
       <c r="P3">
-        <v>0.2046865994978</v>
+        <v>0.4614091798762974</v>
       </c>
       <c r="Q3">
-        <v>8.396300307512595</v>
+        <v>8.273670736864</v>
       </c>
       <c r="R3">
-        <v>8.396300307512595</v>
+        <v>74.46303663177601</v>
       </c>
       <c r="S3">
-        <v>0.1432818726397651</v>
+        <v>0.0905691025375035</v>
       </c>
       <c r="T3">
-        <v>0.1432818726397651</v>
+        <v>0.09056910253750351</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>9.556699030345159</v>
+        <v>3.708951</v>
       </c>
       <c r="H4">
-        <v>9.556699030345159</v>
+        <v>11.126853</v>
       </c>
       <c r="I4">
-        <v>0.7000061215111694</v>
+        <v>0.1962880377928</v>
       </c>
       <c r="J4">
-        <v>0.7000061215111694</v>
+        <v>0.1962880377928</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.519589171330137</v>
+        <v>0.9049766666666667</v>
       </c>
       <c r="N4">
-        <v>0.519589171330137</v>
+        <v>2.71493</v>
       </c>
       <c r="O4">
-        <v>0.1210512972653653</v>
+        <v>0.1871873408177105</v>
       </c>
       <c r="P4">
-        <v>0.1210512972653653</v>
+        <v>0.1871873408177105</v>
       </c>
       <c r="Q4">
-        <v>4.965557329828566</v>
+        <v>3.35651411281</v>
       </c>
       <c r="R4">
-        <v>4.965557329828566</v>
+        <v>30.20862701529</v>
       </c>
       <c r="S4">
-        <v>0.08473664910262396</v>
+        <v>0.03674263582876049</v>
       </c>
       <c r="T4">
-        <v>0.08473664910262396</v>
+        <v>0.0367426358287605</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,123 +711,123 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>9.556699030345159</v>
+        <v>3.708951</v>
       </c>
       <c r="H5">
-        <v>9.556699030345159</v>
+        <v>11.126853</v>
       </c>
       <c r="I5">
-        <v>0.7000061215111694</v>
+        <v>0.1962880377928</v>
       </c>
       <c r="J5">
-        <v>0.7000061215111694</v>
+        <v>0.1962880377928</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.667117269184561</v>
+        <v>0.6326649999999999</v>
       </c>
       <c r="N5">
-        <v>0.667117269184561</v>
+        <v>1.897995</v>
       </c>
       <c r="O5">
-        <v>0.155421658723539</v>
+        <v>0.1308618037795857</v>
       </c>
       <c r="P5">
-        <v>0.155421658723539</v>
+        <v>0.1308618037795857</v>
       </c>
       <c r="Q5">
-        <v>6.375438959542605</v>
+        <v>2.346523484415</v>
       </c>
       <c r="R5">
-        <v>6.375438959542605</v>
+        <v>21.118711359735</v>
       </c>
       <c r="S5">
-        <v>0.1087961125218971</v>
+        <v>0.02568660668592129</v>
       </c>
       <c r="T5">
-        <v>0.1087961125218971</v>
+        <v>0.02568660668592129</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
         <v>22</v>
       </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>4.09560876621269</v>
+        <v>3.708951</v>
       </c>
       <c r="H6">
-        <v>4.09560876621269</v>
+        <v>11.126853</v>
       </c>
       <c r="I6">
-        <v>0.2999938784888306</v>
+        <v>0.1962880377928</v>
       </c>
       <c r="J6">
-        <v>0.2999938784888306</v>
+        <v>0.1962880377928</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.22702178916967</v>
+        <v>0.678114</v>
       </c>
       <c r="N6">
-        <v>2.22702178916967</v>
+        <v>2.034342</v>
       </c>
       <c r="O6">
-        <v>0.5188404445132958</v>
+        <v>0.1402625737288928</v>
       </c>
       <c r="P6">
-        <v>0.5188404445132958</v>
+        <v>0.1402625737288928</v>
       </c>
       <c r="Q6">
-        <v>9.121009962269971</v>
+        <v>2.515091598414</v>
       </c>
       <c r="R6">
-        <v>9.121009962269971</v>
+        <v>22.635824385726</v>
       </c>
       <c r="S6">
-        <v>0.1556489572664125</v>
+        <v>0.0275318653730123</v>
       </c>
       <c r="T6">
-        <v>0.1556489572664125</v>
+        <v>0.02753186537301231</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>4.09560876621269</v>
+        <v>10.28369633333333</v>
       </c>
       <c r="H7">
-        <v>4.09560876621269</v>
+        <v>30.851089</v>
       </c>
       <c r="I7">
-        <v>0.2999938784888306</v>
+        <v>0.5442419095121536</v>
       </c>
       <c r="J7">
-        <v>0.2999938784888306</v>
+        <v>0.5442419095121537</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.878577454500976</v>
+        <v>0.3881176666666666</v>
       </c>
       <c r="N7">
-        <v>0.878577454500976</v>
+        <v>1.164353</v>
       </c>
       <c r="O7">
-        <v>0.2046865994978</v>
+        <v>0.08027910179751364</v>
       </c>
       <c r="P7">
-        <v>0.2046865994978</v>
+        <v>0.08027910179751364</v>
       </c>
       <c r="Q7">
-        <v>3.598309524451028</v>
+        <v>3.991284225601889</v>
       </c>
       <c r="R7">
-        <v>3.598309524451028</v>
+        <v>35.921558030417</v>
       </c>
       <c r="S7">
-        <v>0.06140472685803496</v>
+        <v>0.04369125165619939</v>
       </c>
       <c r="T7">
-        <v>0.06140472685803496</v>
+        <v>0.04369125165619939</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>4.09560876621269</v>
+        <v>10.28369633333333</v>
       </c>
       <c r="H8">
-        <v>4.09560876621269</v>
+        <v>30.851089</v>
       </c>
       <c r="I8">
-        <v>0.2999938784888306</v>
+        <v>0.5442419095121536</v>
       </c>
       <c r="J8">
-        <v>0.2999938784888306</v>
+        <v>0.5442419095121537</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.519589171330137</v>
+        <v>2.230730666666667</v>
       </c>
       <c r="N8">
-        <v>0.519589171330137</v>
+        <v>6.692192</v>
       </c>
       <c r="O8">
-        <v>0.1210512972653653</v>
+        <v>0.4614091798762974</v>
       </c>
       <c r="P8">
-        <v>0.1210512972653653</v>
+        <v>0.4614091798762974</v>
       </c>
       <c r="Q8">
-        <v>2.128033964928897</v>
+        <v>22.94015677745422</v>
       </c>
       <c r="R8">
-        <v>2.128033964928897</v>
+        <v>206.461410997088</v>
       </c>
       <c r="S8">
-        <v>0.0363146481627413</v>
+        <v>0.2511182131223128</v>
       </c>
       <c r="T8">
-        <v>0.0363146481627413</v>
+        <v>0.2511182131223129</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +959,495 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>10.28369633333333</v>
+      </c>
+      <c r="H9">
+        <v>30.851089</v>
+      </c>
+      <c r="I9">
+        <v>0.5442419095121536</v>
+      </c>
+      <c r="J9">
+        <v>0.5442419095121537</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.9049766666666667</v>
+      </c>
+      <c r="N9">
+        <v>2.71493</v>
+      </c>
+      <c r="O9">
+        <v>0.1871873408177105</v>
+      </c>
+      <c r="P9">
+        <v>0.1871873408177105</v>
+      </c>
+      <c r="Q9">
+        <v>9.306505228752222</v>
+      </c>
+      <c r="R9">
+        <v>83.75854705877001</v>
+      </c>
+      <c r="S9">
+        <v>0.1018751958031331</v>
+      </c>
+      <c r="T9">
+        <v>0.1018751958031331</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>10.28369633333333</v>
+      </c>
+      <c r="H10">
+        <v>30.851089</v>
+      </c>
+      <c r="I10">
+        <v>0.5442419095121536</v>
+      </c>
+      <c r="J10">
+        <v>0.5442419095121537</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.6326649999999999</v>
+      </c>
+      <c r="N10">
+        <v>1.897995</v>
+      </c>
+      <c r="O10">
+        <v>0.1308618037795857</v>
+      </c>
+      <c r="P10">
+        <v>0.1308618037795857</v>
+      </c>
+      <c r="Q10">
+        <v>6.506134740728332</v>
+      </c>
+      <c r="R10">
+        <v>58.555212666555</v>
+      </c>
+      <c r="S10">
+        <v>0.07122047797120647</v>
+      </c>
+      <c r="T10">
+        <v>0.07122047797120648</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>10.28369633333333</v>
+      </c>
+      <c r="H11">
+        <v>30.851089</v>
+      </c>
+      <c r="I11">
+        <v>0.5442419095121536</v>
+      </c>
+      <c r="J11">
+        <v>0.5442419095121537</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0.678114</v>
+      </c>
+      <c r="N11">
+        <v>2.034342</v>
+      </c>
+      <c r="O11">
+        <v>0.1402625737288928</v>
+      </c>
+      <c r="P11">
+        <v>0.1402625737288928</v>
+      </c>
+      <c r="Q11">
+        <v>6.973518455382</v>
+      </c>
+      <c r="R11">
+        <v>62.76166609843801</v>
+      </c>
+      <c r="S11">
+        <v>0.07633677095930184</v>
+      </c>
+      <c r="T11">
+        <v>0.07633677095930186</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
         <v>23</v>
       </c>
-      <c r="D9" t="s">
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>4.902803666666666</v>
+      </c>
+      <c r="H12">
+        <v>14.708411</v>
+      </c>
+      <c r="I12">
+        <v>0.2594700526950464</v>
+      </c>
+      <c r="J12">
+        <v>0.2594700526950464</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M12">
+        <v>0.3881176666666666</v>
+      </c>
+      <c r="N12">
+        <v>1.164353</v>
+      </c>
+      <c r="O12">
+        <v>0.08027910179751364</v>
+      </c>
+      <c r="P12">
+        <v>0.08027910179751364</v>
+      </c>
+      <c r="Q12">
+        <v>1.902864719231444</v>
+      </c>
+      <c r="R12">
+        <v>17.125782473083</v>
+      </c>
+      <c r="S12">
+        <v>0.02083002277371186</v>
+      </c>
+      <c r="T12">
+        <v>0.02083002277371186</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
         <v>21</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>4.09560876621269</v>
-      </c>
-      <c r="H9">
-        <v>4.09560876621269</v>
-      </c>
-      <c r="I9">
-        <v>0.2999938784888306</v>
-      </c>
-      <c r="J9">
-        <v>0.2999938784888306</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>0.667117269184561</v>
-      </c>
-      <c r="N9">
-        <v>0.667117269184561</v>
-      </c>
-      <c r="O9">
-        <v>0.155421658723539</v>
-      </c>
-      <c r="P9">
-        <v>0.155421658723539</v>
-      </c>
-      <c r="Q9">
-        <v>2.732251335764159</v>
-      </c>
-      <c r="R9">
-        <v>2.732251335764159</v>
-      </c>
-      <c r="S9">
-        <v>0.04662554620164185</v>
-      </c>
-      <c r="T9">
-        <v>0.04662554620164185</v>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>4.902803666666666</v>
+      </c>
+      <c r="H13">
+        <v>14.708411</v>
+      </c>
+      <c r="I13">
+        <v>0.2594700526950464</v>
+      </c>
+      <c r="J13">
+        <v>0.2594700526950464</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>2.230730666666667</v>
+      </c>
+      <c r="N13">
+        <v>6.692192</v>
+      </c>
+      <c r="O13">
+        <v>0.4614091798762974</v>
+      </c>
+      <c r="P13">
+        <v>0.4614091798762974</v>
+      </c>
+      <c r="Q13">
+        <v>10.93683449187911</v>
+      </c>
+      <c r="R13">
+        <v>98.431510426912</v>
+      </c>
+      <c r="S13">
+        <v>0.119721864216481</v>
+      </c>
+      <c r="T13">
+        <v>0.119721864216481</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>4.902803666666666</v>
+      </c>
+      <c r="H14">
+        <v>14.708411</v>
+      </c>
+      <c r="I14">
+        <v>0.2594700526950464</v>
+      </c>
+      <c r="J14">
+        <v>0.2594700526950464</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.9049766666666667</v>
+      </c>
+      <c r="N14">
+        <v>2.71493</v>
+      </c>
+      <c r="O14">
+        <v>0.1871873408177105</v>
+      </c>
+      <c r="P14">
+        <v>0.1871873408177105</v>
+      </c>
+      <c r="Q14">
+        <v>4.436922919581111</v>
+      </c>
+      <c r="R14">
+        <v>39.93230627622999</v>
+      </c>
+      <c r="S14">
+        <v>0.04856950918581696</v>
+      </c>
+      <c r="T14">
+        <v>0.04856950918581696</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>4.902803666666666</v>
+      </c>
+      <c r="H15">
+        <v>14.708411</v>
+      </c>
+      <c r="I15">
+        <v>0.2594700526950464</v>
+      </c>
+      <c r="J15">
+        <v>0.2594700526950464</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.6326649999999999</v>
+      </c>
+      <c r="N15">
+        <v>1.897995</v>
+      </c>
+      <c r="O15">
+        <v>0.1308618037795857</v>
+      </c>
+      <c r="P15">
+        <v>0.1308618037795857</v>
+      </c>
+      <c r="Q15">
+        <v>3.101832281771666</v>
+      </c>
+      <c r="R15">
+        <v>27.916490535945</v>
+      </c>
+      <c r="S15">
+        <v>0.03395471912245791</v>
+      </c>
+      <c r="T15">
+        <v>0.03395471912245791</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>4.902803666666666</v>
+      </c>
+      <c r="H16">
+        <v>14.708411</v>
+      </c>
+      <c r="I16">
+        <v>0.2594700526950464</v>
+      </c>
+      <c r="J16">
+        <v>0.2594700526950464</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.678114</v>
+      </c>
+      <c r="N16">
+        <v>2.034342</v>
+      </c>
+      <c r="O16">
+        <v>0.1402625737288928</v>
+      </c>
+      <c r="P16">
+        <v>0.1402625737288928</v>
+      </c>
+      <c r="Q16">
+        <v>3.324659805618</v>
+      </c>
+      <c r="R16">
+        <v>29.921938250562</v>
+      </c>
+      <c r="S16">
+        <v>0.03639393739657864</v>
+      </c>
+      <c r="T16">
+        <v>0.03639393739657864</v>
       </c>
     </row>
   </sheetData>
